--- a/系统/法院系统/司法行政综合管理系统标准报价表-宗元.xlsx
+++ b/系统/法院系统/司法行政综合管理系统标准报价表-宗元.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/系统/法院系统/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16400" tabRatio="723" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="723" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="行政综合管理系统报价" sheetId="1" r:id="rId1"/>
@@ -16,8 +21,11 @@
     <sheet name="调整每期报价" sheetId="15" r:id="rId7"/>
     <sheet name="报价" sheetId="16" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -737,6 +745,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -745,6 +754,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -752,6 +762,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1258,6 +1269,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,51 +1368,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1396,32 +1425,15 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="30">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="7"/>
     <cellStyle name="常规_Sheet1" xfId="3"/>
     <cellStyle name="常规_Sheet1_1" xfId="1"/>
@@ -1437,24 +1449,28 @@
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔_Sheet1" xfId="2"/>
     <cellStyle name="千位分隔_Sheet1_1" xfId="4"/>
     <cellStyle name="千位分隔_Sheet1_2" xfId="5"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1749,49 +1765,49 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="118" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="72" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="28"/>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="119" t="s">
+      <c r="M1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="119" t="s">
+      <c r="N1" s="73" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1805,7 +1821,7 @@
       <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="117"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="29" t="s">
         <v>42</v>
       </c>
@@ -1834,7 +1850,7 @@
         <v>162960</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>55</v>
       </c>
@@ -1844,7 +1860,7 @@
       <c r="C3" s="30"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="117"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="29" t="s">
         <v>43</v>
       </c>
@@ -1874,7 +1890,7 @@
         <v>198840</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -1882,8 +1898,8 @@
         <v>200000</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="77">
+      <c r="D4" s="80"/>
+      <c r="E4" s="83">
         <v>650000</v>
       </c>
       <c r="F4" s="27"/>
@@ -1915,7 +1931,7 @@
         <v>116640</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
@@ -1923,8 +1939,8 @@
         <v>300000</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="78"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="27"/>
       <c r="G5" s="29" t="s">
         <v>46</v>
@@ -1954,7 +1970,7 @@
         <v>35280</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -1962,8 +1978,8 @@
         <v>200000</v>
       </c>
       <c r="C6" s="33"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="79"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="27"/>
       <c r="G6" s="29" t="s">
         <v>47</v>
@@ -1993,7 +2009,7 @@
         <v>430560</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="14" customFormat="1" ht="17.25" customHeight="1">
+    <row r="7" spans="1:14" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -2001,8 +2017,8 @@
         <v>100000</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="77">
+      <c r="D7" s="80"/>
+      <c r="E7" s="83">
         <v>400000</v>
       </c>
       <c r="F7" s="27"/>
@@ -2027,7 +2043,7 @@
         <f t="shared" si="3"/>
         <v>117000</v>
       </c>
-      <c r="M7" s="123">
+      <c r="M7" s="75">
         <f t="shared" si="1"/>
         <v>786900</v>
       </c>
@@ -2036,7 +2052,7 @@
         <v>944280</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -2044,11 +2060,11 @@
         <v>150000</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="78"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
@@ -2056,11 +2072,11 @@
         <v>150000</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="78"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
@@ -2068,11 +2084,11 @@
         <v>200000</v>
       </c>
       <c r="C10" s="33"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="79"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
@@ -2080,13 +2096,13 @@
         <v>100000</v>
       </c>
       <c r="C11" s="31"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="77">
+      <c r="D11" s="86"/>
+      <c r="E11" s="83">
         <v>450000</v>
       </c>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
@@ -2094,11 +2110,11 @@
         <v>100000</v>
       </c>
       <c r="C12" s="32"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="78"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="13" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
@@ -2106,11 +2122,11 @@
         <v>200000</v>
       </c>
       <c r="C13" s="32"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="78"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="27"/>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="14" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
@@ -2118,11 +2134,11 @@
         <v>100000</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="78"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="15" spans="1:14" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>20</v>
       </c>
@@ -2130,11 +2146,11 @@
         <v>100000</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:14" s="14" customFormat="1" ht="35.25" customHeight="1">
+    <row r="16" spans="1:14" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
         <v>25</v>
       </c>
@@ -2150,18 +2166,18 @@
       </c>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="39" customHeight="1">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="116"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>9</v>
       </c>
@@ -2175,10 +2191,10 @@
       <c r="E18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="117"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
         <v>22</v>
       </c>
@@ -2196,7 +2212,7 @@
       <c r="F19" s="27"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +2229,7 @@
       </c>
       <c r="F20" s="27"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>36</v>
       </c>
@@ -2230,30 +2246,30 @@
       </c>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A22" s="70" t="s">
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="24">
         <f>E19+E20+E21</f>
         <v>7498000</v>
       </c>
       <c r="F22" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="17">
-      <c r="A25" s="71" t="s">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.15">
+      <c r="A25" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="116"/>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="70"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
@@ -2271,7 +2287,7 @@
       <c r="F26" s="27"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>23</v>
       </c>
@@ -2289,7 +2305,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>24</v>
       </c>
@@ -2307,20 +2323,20 @@
       <c r="F28" s="27"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A29" s="70" t="s">
+    <row r="29" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="24">
         <f>E26+E27+E28</f>
         <v>2494000</v>
       </c>
       <c r="F29" s="27"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2348,11 +2364,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2364,7 +2375,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
@@ -2372,7 +2383,7 @@
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -2380,7 +2391,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2402,7 +2413,7 @@
       <c r="C3" s="19"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -2412,7 +2423,7 @@
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="15">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -2422,7 +2433,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2441,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -2440,7 +2451,7 @@
       </c>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>31</v>
@@ -2450,7 +2461,7 @@
       </c>
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -2460,7 +2471,7 @@
       </c>
       <c r="D9" s="20"/>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>33</v>
@@ -2470,7 +2481,7 @@
       </c>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2480,7 +2491,7 @@
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -2490,43 +2501,43 @@
       </c>
       <c r="D12" s="20"/>
     </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
     </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:4" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:4" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="19" spans="1:4" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="21"/>
@@ -2535,11 +2546,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2551,7 +2557,7 @@
       <selection activeCell="E17" sqref="E17:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
@@ -2572,28 +2578,28 @@
     <col min="19" max="19" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-    </row>
-    <row r="2" spans="1:19" s="51" customFormat="1" ht="60">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+    </row>
+    <row r="2" spans="1:19" s="51" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="50" t="s">
         <v>2</v>
@@ -2650,8 +2656,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="93" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -2663,13 +2669,13 @@
       <c r="D3" s="43">
         <v>200</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="92">
         <v>800000</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="92">
         <v>48000</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="92">
         <v>25000</v>
       </c>
       <c r="H3" s="24">
@@ -2715,8 +2721,8 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="93"/>
       <c r="B4" s="41" t="s">
         <v>76</v>
       </c>
@@ -2726,9 +2732,9 @@
       <c r="D4" s="43">
         <v>200</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="24">
         <v>17</v>
       </c>
@@ -2772,8 +2778,8 @@
         <v>1008000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="93"/>
       <c r="B5" s="41" t="s">
         <v>77</v>
       </c>
@@ -2783,9 +2789,9 @@
       <c r="D5" s="43">
         <v>200</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="24">
         <v>131</v>
       </c>
@@ -2829,8 +2835,8 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="93"/>
       <c r="B6" s="41" t="s">
         <v>78</v>
       </c>
@@ -2840,9 +2846,9 @@
       <c r="D6" s="43">
         <v>200</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="24" t="s">
         <v>87</v>
       </c>
@@ -2886,8 +2892,8 @@
         <v>5358000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="94" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -2939,8 +2945,8 @@
         <v>528000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15">
-      <c r="A8" s="88"/>
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="94"/>
       <c r="B8" s="35" t="s">
         <v>68</v>
       </c>
@@ -2990,8 +2996,8 @@
         <v>528000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15">
-      <c r="A9" s="88"/>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="94"/>
       <c r="B9" s="35" t="s">
         <v>71</v>
       </c>
@@ -3041,8 +3047,8 @@
         <v>528000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15">
-      <c r="A10" s="88"/>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="94"/>
       <c r="B10" s="35" t="s">
         <v>60</v>
       </c>
@@ -3092,8 +3098,8 @@
         <v>1055000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15">
-      <c r="A11" s="88"/>
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="94"/>
       <c r="B11" s="35" t="s">
         <v>67</v>
       </c>
@@ -3143,8 +3149,8 @@
         <v>528000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15">
-      <c r="A12" s="89" t="s">
+    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="95" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -3196,8 +3202,8 @@
         <v>1055000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="89"/>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="95"/>
       <c r="B13" s="38" t="s">
         <v>70</v>
       </c>
@@ -3247,8 +3253,8 @@
         <v>1055000</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15">
-      <c r="A14" s="89"/>
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="95"/>
       <c r="B14" s="38" t="s">
         <v>61</v>
       </c>
@@ -3298,8 +3304,8 @@
         <v>528000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="89"/>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="95"/>
       <c r="B15" s="38" t="s">
         <v>62</v>
       </c>
@@ -3349,11 +3355,11 @@
         <v>528000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A16" s="90" t="s">
+    <row r="16" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="24">
         <f>SUM(C3:C15)</f>
         <v>2250000</v>
@@ -3402,7 +3408,7 @@
         <v>11691000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="24.75" customHeight="1">
+    <row r="17" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45" t="s">
         <v>63</v>
       </c>
@@ -3411,21 +3417,21 @@
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="85"/>
-    </row>
-    <row r="18" spans="1:15" ht="27" customHeight="1"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="91"/>
+    </row>
+    <row r="18" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:Q1"/>
@@ -3441,11 +3447,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3460,7 +3461,7 @@
       <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
@@ -3477,7 +3478,7 @@
     <col min="21" max="21" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B1" s="52" t="s">
         <v>28</v>
       </c>
@@ -3485,7 +3486,7 @@
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
     </row>
-    <row r="2" spans="1:21" s="51" customFormat="1" ht="45">
+    <row r="2" spans="1:21" s="51" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A2" s="50"/>
       <c r="B2" s="50" t="s">
         <v>2</v>
@@ -3548,8 +3549,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="93" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -3561,15 +3562,15 @@
       <c r="D3" s="43">
         <v>200</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="92">
         <f>公司!E3:E6*A23</f>
         <v>376000</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="92">
         <f>公司!F3:F6*B23</f>
         <v>26400.000000000004</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="92">
         <f>公司!G3:G6*C23</f>
         <v>16250</v>
       </c>
@@ -3623,8 +3624,8 @@
         <v>376000</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="93"/>
       <c r="B4" s="41" t="s">
         <v>76</v>
       </c>
@@ -3634,9 +3635,9 @@
       <c r="D4" s="43">
         <v>200</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="24">
         <v>17</v>
       </c>
@@ -3687,8 +3688,8 @@
         <v>132000.00000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="93"/>
       <c r="B5" s="41" t="s">
         <v>77</v>
       </c>
@@ -3698,9 +3699,9 @@
       <c r="D5" s="43">
         <v>200</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="24">
         <v>131</v>
       </c>
@@ -3751,8 +3752,8 @@
         <v>373750</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="93"/>
       <c r="B6" s="41" t="s">
         <v>78</v>
       </c>
@@ -3762,9 +3763,9 @@
       <c r="D6" s="43">
         <v>200</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="24" t="s">
         <v>102</v>
       </c>
@@ -3815,8 +3816,8 @@
         <v>881750</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="94" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -3876,8 +3877,8 @@
         <v>83085</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
-      <c r="A8" s="88"/>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="94"/>
       <c r="B8" s="35" t="s">
         <v>68</v>
       </c>
@@ -3935,8 +3936,8 @@
         <v>83085</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
-      <c r="A9" s="88"/>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="94"/>
       <c r="B9" s="35" t="s">
         <v>71</v>
       </c>
@@ -3994,8 +3995,8 @@
         <v>83085</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
-      <c r="A10" s="88"/>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="94"/>
       <c r="B10" s="35" t="s">
         <v>60</v>
       </c>
@@ -4053,8 +4054,8 @@
         <v>165700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
-      <c r="A11" s="88"/>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="94"/>
       <c r="B11" s="35" t="s">
         <v>67</v>
       </c>
@@ -4112,8 +4113,8 @@
         <v>83085</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
-      <c r="A12" s="89" t="s">
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="95" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -4173,8 +4174,8 @@
         <v>165700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
-      <c r="A13" s="89"/>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="95"/>
       <c r="B13" s="38" t="s">
         <v>70</v>
       </c>
@@ -4232,8 +4233,8 @@
         <v>165700</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
-      <c r="A14" s="89"/>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="95"/>
       <c r="B14" s="38" t="s">
         <v>61</v>
       </c>
@@ -4291,8 +4292,8 @@
         <v>83085</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
-      <c r="A15" s="89"/>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="95"/>
       <c r="B15" s="38" t="s">
         <v>62</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>119125</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="32.25" customHeight="1">
+    <row r="16" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="53" t="s">
         <v>25</v>
       </c>
@@ -4407,14 +4408,14 @@
         <v>1913400</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="38.25" customHeight="1">
-      <c r="A17" s="92" t="s">
+    <row r="17" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="61"/>
       <c r="E17" s="61"/>
       <c r="F17" s="61"/>
@@ -4446,12 +4447,12 @@
       <c r="T17" s="45"/>
       <c r="U17" s="49"/>
     </row>
-    <row r="18" spans="1:21" s="45" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92" t="s">
+    <row r="18" spans="1:21" s="45" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
@@ -4484,26 +4485,26 @@
       <c r="T18" s="59"/>
       <c r="U18" s="49"/>
     </row>
-    <row r="19" spans="1:21" ht="24.75" customHeight="1">
+    <row r="19" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="95"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="57"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
@@ -4511,15 +4512,15 @@
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="30" customHeight="1"/>
-    <row r="21" spans="1:21">
-      <c r="A21" s="96" t="s">
+    <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
         <v>95</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="63">
         <v>0.47</v>
       </c>
@@ -4543,26 +4544,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4574,9 +4570,9 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>135</v>
       </c>
@@ -4590,7 +4586,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -4604,7 +4600,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -4618,7 +4614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -4632,7 +4628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -4660,7 +4656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -4677,11 +4673,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4693,36 +4684,36 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="65" t="s">
         <v>107</v>
       </c>
@@ -4742,8 +4733,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="104" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -4766,8 +4757,8 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="105"/>
       <c r="B4" s="47" t="s">
         <v>111</v>
       </c>
@@ -4791,8 +4782,8 @@
         <v>1020000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="109"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="106"/>
       <c r="B5" s="47" t="s">
         <v>100</v>
       </c>
@@ -4816,11 +4807,11 @@
         <v>3930000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="110" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="111"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="24"/>
       <c r="D6" s="47">
         <f>SUM(D3:D5)</f>
@@ -4847,118 +4838,113 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="106" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="106"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="66">
         <f>SUM(C3:C5)</f>
         <v>149</v>
       </c>
-      <c r="D7" s="106">
+      <c r="D7" s="103">
         <f>SUM(D6:F6)</f>
         <v>10654000</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103">
         <f>SUM(G6:I6)</f>
         <v>10654000</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="58" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="92" t="s">
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="92"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="98"/>
       <c r="B11" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="92"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="98"/>
       <c r="B12" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4970,36 +4956,36 @@
       <selection activeCell="G7" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="65" t="s">
         <v>107</v>
       </c>
@@ -5019,8 +5005,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="104" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -5043,8 +5029,8 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="105"/>
       <c r="B4" s="47" t="s">
         <v>111</v>
       </c>
@@ -5068,8 +5054,8 @@
         <v>561000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="109"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="106"/>
       <c r="B5" s="47" t="s">
         <v>100</v>
       </c>
@@ -5093,11 +5079,11 @@
         <v>2554500</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="110" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="111"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="24"/>
       <c r="D6" s="47">
         <f>SUM(D3:D5)</f>
@@ -5124,91 +5110,91 @@
         <v>3115500</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="106" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="106"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="66">
         <f>SUM(C3:C5)</f>
         <v>149</v>
       </c>
-      <c r="D7" s="106">
+      <c r="D7" s="103">
         <f>SUM(D6:F6)</f>
         <v>6487200</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103">
         <f>SUM(G6:I6)</f>
         <v>6487200</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="58" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="92" t="s">
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="92"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="98"/>
       <c r="B11" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="92"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="98"/>
       <c r="B12" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5231,11 +5217,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5247,46 +5228,46 @@
       <selection activeCell="B25" sqref="B24:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
       <c r="D3" s="65" t="s">
         <v>107</v>
       </c>
@@ -5306,8 +5287,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="113" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="119" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -5330,8 +5311,8 @@
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="114"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="120"/>
       <c r="B5" s="47" t="s">
         <v>111</v>
       </c>
@@ -5355,8 +5336,8 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="121"/>
       <c r="B6" s="47" t="s">
         <v>100</v>
       </c>
@@ -5380,11 +5361,11 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="110" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="111"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="24"/>
       <c r="D7" s="47">
         <f>SUM(D4:D6)</f>
@@ -5411,66 +5392,66 @@
         <v>3120000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="106" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="106"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="66">
         <f>SUM(C4:C6)</f>
         <v>93</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="103">
         <f>SUM(D7:F7)</f>
         <v>7309000</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106">
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103">
         <f>SUM(G7:I7)</f>
         <v>7309000</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="112" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="104" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101" t="s">
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="65" t="s">
         <v>107</v>
       </c>
@@ -5490,8 +5471,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="107" t="str">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="104" t="str">
         <f>A4</f>
         <v>吉林</v>
       </c>
@@ -5515,8 +5496,8 @@
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="105"/>
       <c r="B15" s="47" t="s">
         <v>111</v>
       </c>
@@ -5540,8 +5521,8 @@
         <v>396000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="109"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="106"/>
       <c r="B16" s="47" t="s">
         <v>100</v>
       </c>
@@ -5565,11 +5546,11 @@
         <v>1560000</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="110" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="111"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="24"/>
       <c r="D17" s="47">
         <f>SUM(D14:D16)</f>
@@ -5596,99 +5577,104 @@
         <v>1956000</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="106" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="66">
         <f>SUM(C14:C16)</f>
         <v>93</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="103">
         <f>SUM(D17:F17)</f>
         <v>4366950</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106">
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103">
         <f>SUM(G17:I17)</f>
         <v>4366950</v>
       </c>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="58" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="120" t="s">
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="120"/>
-      <c r="B23" s="121" t="s">
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="122"/>
+      <c r="B23" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="120"/>
-      <c r="B24" s="121" t="s">
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="122"/>
+      <c r="B24" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A7:B7"/>
@@ -5701,23 +5687,13 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>